--- a/Random-proliferation-assays/143B-GOT-DKO_Rot_Asp-Pyr-rescue/dko_asp_pyr_rot.xlsx
+++ b/Random-proliferation-assays/143B-GOT-DKO_Rot_Asp-Pyr-rescue/dko_asp_pyr_rot.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/Random-proliferation-assays/143B-GOT-DKO_Rot_Asp-Pyr-rescue/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE0B06D-97A2-704F-B5C9-DCEC7D12A8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23100" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,11 +155,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +223,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,7 +275,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -282,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,9 +344,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,14 +520,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -553,7 +587,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2">
-        <v>44620.64513888889</v>
+        <v>44620.645138888889</v>
       </c>
       <c r="F2">
         <v>11057</v>
@@ -577,10 +611,10 @@
         <v>19.68</v>
       </c>
       <c r="M2">
-        <v>2.257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.2570000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -594,7 +628,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="2">
-        <v>44620.64513888889</v>
+        <v>44620.645138888889</v>
       </c>
       <c r="F3">
         <v>10855</v>
@@ -612,16 +646,16 @@
         <v>813400</v>
       </c>
       <c r="K3">
-        <v>19.85</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="L3">
         <v>19.62</v>
       </c>
       <c r="M3">
-        <v>2.429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.4289999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -635,7 +669,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="2">
-        <v>44620.64583333334</v>
+        <v>44620.645833333343</v>
       </c>
       <c r="F4">
         <v>10936</v>
@@ -653,7 +687,7 @@
         <v>805000</v>
       </c>
       <c r="K4">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L4">
         <v>19.91</v>
@@ -661,8 +695,12 @@
       <c r="M4">
         <v>2.258</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <f>AVERAGE(K2:K4)</f>
+        <v>19.943333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -676,7 +714,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="2">
-        <v>44620.65208333333</v>
+        <v>44620.652083333327</v>
       </c>
       <c r="F5">
         <v>12620</v>
@@ -697,13 +735,13 @@
         <v>20.47</v>
       </c>
       <c r="L5">
-        <v>20.26</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="M5">
-        <v>2.384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.3839999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -717,7 +755,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="2">
-        <v>44620.65277777778</v>
+        <v>44620.652777777781</v>
       </c>
       <c r="F6">
         <v>14571</v>
@@ -741,10 +779,10 @@
         <v>20.11</v>
       </c>
       <c r="M6">
-        <v>2.277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.2770000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -782,10 +820,14 @@
         <v>20.13</v>
       </c>
       <c r="M7">
-        <v>2.316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(K5:K7)</f>
+        <v>20.353333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -799,7 +841,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="2">
-        <v>44620.64236111111</v>
+        <v>44620.642361111109</v>
       </c>
       <c r="F8">
         <v>2899</v>
@@ -817,7 +859,7 @@
         <v>225000</v>
       </c>
       <c r="K8">
-        <v>19.83</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="L8">
         <v>19.61</v>
@@ -826,7 +868,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -840,7 +882,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="2">
-        <v>44620.64305555556</v>
+        <v>44620.643055555563</v>
       </c>
       <c r="F9">
         <v>3420</v>
@@ -858,16 +900,16 @@
         <v>260000</v>
       </c>
       <c r="K9">
-        <v>19.83</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="L9">
-        <v>19.58</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="M9">
         <v>2.41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -881,7 +923,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="2">
-        <v>44620.64375</v>
+        <v>44620.643750000003</v>
       </c>
       <c r="F10">
         <v>3695</v>
@@ -905,10 +947,14 @@
         <v>19.54</v>
       </c>
       <c r="M10">
-        <v>2.345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(K8:K10)</f>
+        <v>19.819999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -922,7 +968,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="2">
-        <v>44620.64930555555</v>
+        <v>44620.649305555547</v>
       </c>
       <c r="F11">
         <v>10584</v>
@@ -943,13 +989,13 @@
         <v>19.54</v>
       </c>
       <c r="L11">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M11">
-        <v>2.203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2.2029999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -963,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="2">
-        <v>44620.64722222222</v>
+        <v>44620.647222222222</v>
       </c>
       <c r="F12">
         <v>10606</v>
@@ -987,10 +1033,10 @@
         <v>19.27</v>
       </c>
       <c r="M12">
-        <v>2.244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.2440000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1004,7 +1050,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="2">
-        <v>44620.64791666667</v>
+        <v>44620.647916666669</v>
       </c>
       <c r="F13">
         <v>11195</v>
@@ -1025,13 +1071,17 @@
         <v>19.34</v>
       </c>
       <c r="L13">
-        <v>19.19</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="M13">
         <v>2.202</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <f>AVERAGE(K11:K13)</f>
+        <v>19.453333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="2">
-        <v>44616.81597222222</v>
+        <v>44616.815972222219</v>
       </c>
       <c r="F14">
         <v>1440</v>
@@ -1066,13 +1116,13 @@
         <v>20.14</v>
       </c>
       <c r="L14">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M14">
         <v>2.601</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1136,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="2">
-        <v>44616.81666666667</v>
+        <v>44616.816666666673</v>
       </c>
       <c r="F15">
         <v>1450</v>
@@ -1104,16 +1154,16 @@
         <v>18620</v>
       </c>
       <c r="K15">
-        <v>20.01</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="L15">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="M15">
-        <v>2.404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.4039999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1127,7 +1177,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="2">
-        <v>44616.81736111111</v>
+        <v>44616.817361111112</v>
       </c>
       <c r="F16">
         <v>1501</v>
@@ -1151,10 +1201,10 @@
         <v>20.07</v>
       </c>
       <c r="M16">
-        <v>2.401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.4009999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1218,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="2">
-        <v>44616.81736111111</v>
+        <v>44616.817361111112</v>
       </c>
       <c r="F17">
         <v>1669</v>
@@ -1186,16 +1236,16 @@
         <v>18060</v>
       </c>
       <c r="K17">
-        <v>20.15</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="L17">
         <v>19.98</v>
       </c>
       <c r="M17">
-        <v>2.781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.7810000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1209,7 +1259,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="2">
-        <v>44616.81805555556</v>
+        <v>44616.818055555559</v>
       </c>
       <c r="F18">
         <v>1823</v>
@@ -1233,10 +1283,10 @@
         <v>20.2</v>
       </c>
       <c r="M18">
-        <v>2.349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.3490000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1300,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="2">
-        <v>44616.81875</v>
+        <v>44616.818749999999</v>
       </c>
       <c r="F19">
         <v>1848</v>
@@ -1262,19 +1312,19 @@
         <v>14</v>
       </c>
       <c r="I19">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="J19">
         <v>20700</v>
       </c>
       <c r="K19">
-        <v>20.33</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="L19">
         <v>20.09</v>
       </c>
       <c r="M19">
-        <v>2.656</v>
+        <v>2.6560000000000001</v>
       </c>
     </row>
   </sheetData>
